--- a/SpaOnline/EventStorming/CitaReserva - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/CitaReserva - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4684C1C4-B107-4035-99FB-FA701FD3E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4678A3AB-44FF-4C4C-9112-971793ABACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Consentimiento" sheetId="71" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="127">
   <si>
     <t>Descripción</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>CitaReserva</t>
-  </si>
-  <si>
-    <t>CitaReservaServicio</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la reserva del servicio disponible</t>
   </si>
   <si>
     <t>Consentimiento</t>
@@ -946,6 +940,27 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,27 +1008,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1058,17 +1052,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>115167</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162426</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>267482</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BC10D8-286E-2FBB-8148-337166E71838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD419942-31CE-2A01-5C5A-3DD9944E8FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6211167" cy="3591426"/>
+          <a:ext cx="5601482" cy="3353268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,11 +1411,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1442,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="36"/>
@@ -1486,7 +1480,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>26</v>
@@ -1497,29 +1491,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1566,84 +1546,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="56" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion de los clientes</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1653,52 +1633,52 @@
       <c r="K4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="55" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
@@ -1711,338 +1691,338 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="54" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+        <v>64</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="54" t="s">
+      <c r="B10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="54"/>
+        <v>65</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="37"/>
       <c r="L10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="58"/>
+        <v>66</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="59" t="s">
-        <v>44</v>
+      <c r="M13" s="42" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="59"/>
+        <v>46</v>
+      </c>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>46</v>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="58"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="58"/>
+        <v>49</v>
+      </c>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -2121,52 +2101,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
@@ -2183,6 +2117,52 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2225,84 +2205,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="str">
-        <f>'Listado Objetos de Dominio'!$A$7</f>
-        <v>CitaReservaServicio</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="56" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="str">
-        <f>'Listado Objetos de Dominio'!$B$7</f>
-        <v>Objeto de dominio que contiene la reserva del servicio disponible</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="B3" s="58" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2312,52 +2292,52 @@
       <c r="K4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="55" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2370,376 +2350,352 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="54" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+        <v>90</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="54" t="s">
+      <c r="B10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="54"/>
+        <v>91</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="37"/>
       <c r="L10" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="58"/>
+        <v>124</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="B13" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="54"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="37"/>
       <c r="L13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="59" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="59"/>
+        <v>81</v>
+      </c>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>73</v>
+        <v>116</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="58"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="54" t="s">
+      <c r="B17" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="58"/>
+        <v>84</v>
+      </c>
+      <c r="M19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
@@ -2756,17 +2712,41 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{9DF923ED-1686-4B14-A06E-2CBA5434B074}"/>
@@ -2809,84 +2789,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="56" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>Consentimiento</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="58" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la informacion del consentimiento</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2896,52 +2876,52 @@
       <c r="K4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="55" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2954,341 +2934,392 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="54" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+        <v>120</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="B10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="54"/>
+        <v>121</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="37"/>
       <c r="L10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>107</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>98</v>
+        <v>122</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="58"/>
+        <v>125</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="54"/>
+      <c r="B13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="37"/>
       <c r="L13" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="59" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="59"/>
+        <v>106</v>
+      </c>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>98</v>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="58"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="1:13" s="32" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54" t="s">
+      <c r="B17" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="32" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="58"/>
+        <v>109</v>
+      </c>
+      <c r="M19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3300,57 +3331,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A1BF5196-6B81-4A2B-9969-D82FF594EDD4}"/>
@@ -3362,6 +3342,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -3505,22 +3500,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3538,31 +3543,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>
